--- a/data/trans_bre/P57_AC_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P57_AC_R-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.9460315347541104</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-4.212219693614195</v>
+        <v>-4.212219693614216</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.01271191410405072</v>
@@ -649,7 +649,7 @@
         <v>0.01240471561842072</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.07453603711608302</v>
+        <v>-0.07453603711608339</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.675181900636407</v>
+        <v>-8.09988986279112</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.303146931707746</v>
+        <v>-2.711324005252192</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.549153865582763</v>
+        <v>-5.386185896737093</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-10.60097384571204</v>
+        <v>-10.4502137306924</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.109529729132853</v>
+        <v>-0.1185976304030597</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.05104882216142988</v>
+        <v>-0.04144844386163181</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.07121155877705457</v>
+        <v>-0.06870716369593934</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1776396833386671</v>
+        <v>-0.1738057470888545</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.002217644002428</v>
+        <v>5.709689730903394</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.33436459659111</v>
+        <v>12.10630766244077</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.525221315927771</v>
+        <v>6.748380332392729</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.268521938055547</v>
+        <v>1.745500472045056</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.09628351231151663</v>
+        <v>0.08862814553657408</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1832834946351987</v>
+        <v>0.2000180245850053</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1033468331311094</v>
+        <v>0.09143428073260232</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.02314311523461811</v>
+        <v>0.0320835993367064</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.222878471104782</v>
+        <v>-3.976177282733706</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.380338044770212</v>
+        <v>-2.557398821727009</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.752797262136701</v>
+        <v>-2.492793941613517</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-7.234779807050397</v>
+        <v>-6.943093605559138</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.05131767736662739</v>
+        <v>-0.061632021338058</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.03510199733916611</v>
+        <v>-0.03734034139273341</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.03607007222164111</v>
+        <v>-0.03313775464432926</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1071137346784778</v>
+        <v>-0.1017856820304096</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>11.65314607386435</v>
+        <v>10.25724171952796</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>12.01807287605127</v>
+        <v>12.07212687801432</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.750999362370775</v>
+        <v>9.602149358015692</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.718678768208165</v>
+        <v>5.164248799360902</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1989502443519423</v>
+        <v>0.1756405967624753</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1925824676593684</v>
+        <v>0.1939579794300737</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1368575746354096</v>
+        <v>0.1333545055392707</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.07489035261105211</v>
+        <v>0.08469797467263068</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>2.036768060419181</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.750957695300259</v>
+        <v>1.750957695300281</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.02479835580327545</v>
@@ -849,7 +849,7 @@
         <v>0.02423290980207424</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.02790296597685661</v>
+        <v>0.02790296597685696</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-9.53492939929891</v>
+        <v>-9.980032368866462</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.721682979449677</v>
+        <v>-2.802072649323277</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.557382808624658</v>
+        <v>-4.471017091677454</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.863906881184062</v>
+        <v>-6.294570966017639</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.130775227735578</v>
+        <v>-0.1355818789175135</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.05536625419940006</v>
+        <v>-0.04120224896870089</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.0525962885278608</v>
+        <v>-0.05281049215990243</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.09011256443607076</v>
+        <v>-0.09344435099494973</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.064991953594389</v>
+        <v>5.969089001776947</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.56218324306906</v>
+        <v>10.89559228049894</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.056300077460216</v>
+        <v>8.181823300954642</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.603993588641206</v>
+        <v>8.659143707165368</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.08573114400550734</v>
+        <v>0.08656169572194367</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1689319747176211</v>
+        <v>0.16953552103352</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09871116090199342</v>
+        <v>0.0992351372627594</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.1605569069790112</v>
+        <v>0.1467828127842188</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.843889795859887</v>
+        <v>-2.17312962941897</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5.407132423119586</v>
+        <v>5.702018443571371</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6242381615074568</v>
+        <v>1.001781373912749</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-5.75931653174566</v>
+        <v>-5.532167874068001</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.02401666489357587</v>
+        <v>-0.03077850223741142</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07803906570285644</v>
+        <v>0.08176595867806061</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.007658795351010153</v>
+        <v>0.01242189095427574</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.08584383252257301</v>
+        <v>-0.08271304033563545</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.511162379141135</v>
+        <v>6.746689956073287</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>13.96173205240027</v>
+        <v>14.40902168316207</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.753756123636865</v>
+        <v>7.887282636145448</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.72093914415916</v>
+        <v>3.211261658421946</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.09480351389195942</v>
+        <v>0.09704800699188207</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2145596407594559</v>
+        <v>0.2200011480411753</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09964077324358739</v>
+        <v>0.1025360428092468</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.04441414625166105</v>
+        <v>0.05153976343706624</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7693553081328295</v>
+        <v>0.6463964236377824</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6964090114226716</v>
+        <v>-0.4426252962489606</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.03947397655408143</v>
+        <v>-0.2140928653155972</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.874594657508104</v>
+        <v>-2.534564022918353</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.01037072740038612</v>
+        <v>0.00890278940053362</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.008303653840443482</v>
+        <v>-0.005959379113400511</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.000564697191753472</v>
+        <v>-0.00249177092975578</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.03962239843834743</v>
+        <v>-0.03525562899950269</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.77891264994003</v>
+        <v>12.55587432836215</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.80458171506563</v>
+        <v>10.17539474124828</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.721614738557971</v>
+        <v>8.525307957973876</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.829096740500942</v>
+        <v>7.697100475305042</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1930834785324224</v>
+        <v>0.1870802303681266</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1626970833274403</v>
+        <v>0.1507357982733217</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1119687413630668</v>
+        <v>0.1098819804139157</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.1185391088658287</v>
+        <v>0.1199872584587451</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>4.82347695234342</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>19.93708568866067</v>
+        <v>19.93708568866066</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2214672517199757</v>
@@ -1149,7 +1149,7 @@
         <v>0.06283145085814226</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.4464082904365216</v>
+        <v>0.4464082904365212</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>6.536486380001495</v>
+        <v>6.800328201493443</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>4.745143910080882</v>
+        <v>5.270012333120368</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-0.6333393305656905</v>
+        <v>-0.7016782014805375</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8.170401777940176</v>
+        <v>9.016267171300225</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1050084910556205</v>
+        <v>0.1069001277507788</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07214247348969974</v>
+        <v>0.07954926249704117</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.007868578385152255</v>
+        <v>-0.008756344340020886</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1447066832033065</v>
+        <v>0.1615577228238432</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>18.98708485384834</v>
+        <v>18.80521923561557</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>18.24828199657879</v>
+        <v>18.42691392302004</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>10.87458528441885</v>
+        <v>10.46103276489118</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>30.40152109876459</v>
+        <v>29.78563829378163</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3745669217771763</v>
+        <v>0.3613230098784097</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3415288957847003</v>
+        <v>0.3360716130806443</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1526637128462443</v>
+        <v>0.1453834512414963</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.860707898119938</v>
+        <v>0.8338527486119707</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>3.053228043188183</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.62287428490433</v>
+        <v>1.622874284904352</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04051145891824935</v>
@@ -1249,7 +1249,7 @@
         <v>0.03863171101567874</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.0260195368768906</v>
+        <v>0.02601953687689097</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.5220629765263223</v>
+        <v>0.353753255188504</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.445361347411878</v>
+        <v>4.724072399154113</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9460518502749806</v>
+        <v>1.173984738800456</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.4509438037643781</v>
+        <v>-0.6871767383211115</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.00742146323109379</v>
+        <v>0.005078381222120217</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06548434485124638</v>
+        <v>0.07069881924206323</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01177390908904339</v>
+        <v>0.01460662910889612</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.007256342614822131</v>
+        <v>-0.01089814813731228</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.070107749473113</v>
+        <v>4.998987771861092</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.004471745372619</v>
+        <v>9.118327567871679</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.924891323021868</v>
+        <v>4.893880632327236</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.228689296661557</v>
+        <v>4.045732092083676</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.07617954313481054</v>
+        <v>0.07485799037920683</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1376481832825761</v>
+        <v>0.1398723476817935</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06319398861549677</v>
+        <v>0.06224997608807815</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.06998516655769878</v>
+        <v>0.06647439804273214</v>
       </c>
     </row>
     <row r="25">
